--- a/data/output/Pedido_Semana_08_09022026_mascotas_vivo.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_mascotas_vivo.xlsx
@@ -729,7 +729,7 @@
         <v>21</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>82.8</v>
@@ -810,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>42.3</v>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>2.8</v>
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>4.85</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>6.5</v>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>15.5</v>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>4.32</v>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>29.05</v>
@@ -2754,7 +2754,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>5</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" s="4" t="n">
         <v>38.4</v>
@@ -3078,7 +3078,7 @@
         <v>3</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M32" s="4" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="C50" s="8" t="n">
-        <v>-26</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_08_09022026_mascotas_vivo.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_mascotas_vivo.xlsx
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2" s="3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>90</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="R3" s="3" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R4" s="3" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R5" s="3" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R8" s="3" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="3" t="n">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" s="3" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R12" s="3" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" s="3" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14" s="3" t="n">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R19" s="3" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R21" s="3" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R22" s="3" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R23" s="3" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" s="3" t="n">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>3</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R25" s="3" t="n">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R28" s="3" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>21</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R29" s="3" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>10</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R32" s="3" t="n">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" s="3" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R35" s="3" t="n">
         <v>0</v>
